--- a/Excel_to_SAS_Files/SocialSecurity_data.xlsx
+++ b/Excel_to_SAS_Files/SocialSecurity_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/Documents/IHBI/Shootout/Shootout2016/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bryantu-my.sharepoint.com/personal/dplumeri_bryant_edu/Documents/College/Senior/Semester I/AA490/Final Project/Git_Repository/AA490_Project/Excel_to_SAS_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E3F954DD4FBB6EEADB775176970CB27F95F0BB18" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="480" windowWidth="11960" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wage_Limits" sheetId="1" r:id="rId1"/>
@@ -90,9 +91,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -167,7 +168,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -179,8 +180,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -193,6 +194,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -460,18 +464,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1972</v>
       </c>
@@ -487,7 +491,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1973</v>
       </c>
@@ -495,7 +499,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1974</v>
       </c>
@@ -503,7 +507,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1975</v>
       </c>
@@ -511,7 +515,7 @@
         <v>14100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1976</v>
       </c>
@@ -519,7 +523,7 @@
         <v>15300</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1977</v>
       </c>
@@ -527,7 +531,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1978</v>
       </c>
@@ -535,7 +539,7 @@
         <v>17700</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1979</v>
       </c>
@@ -543,7 +547,7 @@
         <v>22900</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1980</v>
       </c>
@@ -551,7 +555,7 @@
         <v>25900</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1981</v>
       </c>
@@ -559,7 +563,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1982</v>
       </c>
@@ -567,7 +571,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1983</v>
       </c>
@@ -575,7 +579,7 @@
         <v>35700</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1984</v>
       </c>
@@ -583,7 +587,7 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1985</v>
       </c>
@@ -591,7 +595,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1986</v>
       </c>
@@ -599,7 +603,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1987</v>
       </c>
@@ -607,7 +611,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1988</v>
       </c>
@@ -615,7 +619,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1989</v>
       </c>
@@ -623,7 +627,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1990</v>
       </c>
@@ -631,7 +635,7 @@
         <v>51300</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1991</v>
       </c>
@@ -639,7 +643,7 @@
         <v>53400</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1992</v>
       </c>
@@ -647,7 +651,7 @@
         <v>55500</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1993</v>
       </c>
@@ -655,7 +659,7 @@
         <v>57600</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1994</v>
       </c>
@@ -663,7 +667,7 @@
         <v>60600</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1995</v>
       </c>
@@ -671,7 +675,7 @@
         <v>61200</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1996</v>
       </c>
@@ -679,7 +683,7 @@
         <v>62700</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1997</v>
       </c>
@@ -687,7 +691,7 @@
         <v>65400</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1998</v>
       </c>
@@ -695,7 +699,7 @@
         <v>68400</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1999</v>
       </c>
@@ -703,7 +707,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2000</v>
       </c>
@@ -711,7 +715,7 @@
         <v>76200</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2001</v>
       </c>
@@ -719,7 +723,7 @@
         <v>80400</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2002</v>
       </c>
@@ -727,7 +731,7 @@
         <v>84900</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2003</v>
       </c>
@@ -735,7 +739,7 @@
         <v>87000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2004</v>
       </c>
@@ -743,7 +747,7 @@
         <v>87900</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2005</v>
       </c>
@@ -751,7 +755,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2006</v>
       </c>
@@ -759,7 +763,7 @@
         <v>94200</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2007</v>
       </c>
@@ -767,7 +771,7 @@
         <v>97500</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2008</v>
       </c>
@@ -775,7 +779,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2009</v>
       </c>
@@ -783,7 +787,7 @@
         <v>106800</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2010</v>
       </c>
@@ -791,7 +795,7 @@
         <v>106800</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2011</v>
       </c>
@@ -799,7 +803,7 @@
         <v>106800</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2012</v>
       </c>
@@ -807,7 +811,7 @@
         <v>110100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2013</v>
       </c>
@@ -815,7 +819,7 @@
         <v>113700</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2014</v>
       </c>
@@ -829,19 +833,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" style="3" customWidth="1"/>
     <col min="2" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -869,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1950</v>
       </c>
@@ -883,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -897,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -911,7 +915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -925,7 +929,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>1959</v>
       </c>
@@ -939,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -953,7 +957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1962</v>
       </c>
@@ -967,7 +971,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -981,7 +985,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1966</v>
       </c>
@@ -995,7 +999,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1967</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>1968</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>1969</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1970</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>1973</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -1093,7 +1097,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>1978</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>1979</v>
       </c>
@@ -1121,7 +1125,7 @@
         <v>10.16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>1980</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>10.16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>1981</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1982</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>1983</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1233,7 +1237,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
